--- a/Example.xlsx
+++ b/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kallio/repos/holvi-laskutus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84AF264-DC98-2848-8FE4-1C0D4586491A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CF113E-CDDD-8E4E-AB5D-6FCED17A1FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="15480" windowWidth="27640" windowHeight="16940" xr2:uid="{43908292-85DE-0548-893A-8AF2B2D35FA3}"/>
+    <workbookView xWindow="3580" yWindow="760" windowWidth="30980" windowHeight="21580" xr2:uid="{43908292-85DE-0548-893A-8AF2B2D35FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sukunimi</t>
   </si>
@@ -50,89 +50,38 @@
     <t>Tiliöinti</t>
   </si>
   <si>
-    <t>4401 LEIRITOIMINTA LEIRITUOTOT</t>
-  </si>
-  <si>
     <t>Laskuriville</t>
   </si>
   <si>
     <t>Laskun otsikko</t>
   </si>
   <si>
-    <t>Sika</t>
-  </si>
-  <si>
-    <t>Jesse</t>
-  </si>
-  <si>
-    <t>jessesika@sorkkeli.rp</t>
-  </si>
-  <si>
     <t>RePo1917 -leiri</t>
   </si>
   <si>
-    <t>Joku</t>
-  </si>
-  <si>
-    <t>Muu</t>
-  </si>
-  <si>
-    <t>testi@testi.com</t>
-  </si>
-  <si>
-    <t>Lippukuntaretki</t>
-  </si>
-  <si>
-    <t>4301 RETKITOIM RETKITOIM TUOTOT</t>
-  </si>
-  <si>
-    <t>4150 OHJTOIMINTA SUDENPENTU TUOTOT</t>
-  </si>
-  <si>
-    <t>4152 OHJTOIMINTA SEIKKAILIJAT TUOTOT</t>
-  </si>
-  <si>
-    <t>4154 OHJTOIMINTA TARPOJAT TUOTOT</t>
-  </si>
-  <si>
-    <t>4156 OHJTOIINTA SAMOAJAT TUOTOT</t>
-  </si>
-  <si>
-    <t>4158 OHJTOIMINTA VAELTAJAT TUOTOT</t>
-  </si>
-  <si>
-    <t>4160 Perhepartio</t>
-  </si>
-  <si>
-    <t>Perhepartion tapahtuma</t>
-  </si>
-  <si>
-    <t>Ryhmän oma retki Sudenpennut</t>
-  </si>
-  <si>
-    <t>…Seikkailijat</t>
-  </si>
-  <si>
-    <t>…Tarpojat</t>
-  </si>
-  <si>
-    <t>…Samoajat</t>
-  </si>
-  <si>
-    <t>…Vaeltajat</t>
-  </si>
-  <si>
     <t>Summa (€)</t>
   </si>
   <si>
     <t>Laskutusosoite</t>
+  </si>
+  <si>
+    <t>Talouspäällikkö täyttää</t>
+  </si>
+  <si>
+    <t>Esimerkki</t>
+  </si>
+  <si>
+    <t>Eero</t>
+  </si>
+  <si>
+    <t>example@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +100,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,10 +134,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA500CD-9FFF-8244-935D-AD2DCE06FB5D}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,130 +470,58 @@
     <col min="7" max="7" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>1917</v>
+        <v>1234</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>2023</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D44" s="1"/>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{063B8D22-BC2F-5F45-AD1B-139CCFA65829}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{41DBC82A-2FAC-504F-B0BB-CC87558FCAF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
